--- a/dart_shots.xlsx
+++ b/dart_shots.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Data/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910F17A5-4790-2444-93CE-738E50B5808D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407968E6-FD4E-2441-B867-8A97799C12C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13600" yWindow="460" windowWidth="13940" windowHeight="13560" xr2:uid="{95A5D617-4876-BF47-9BE6-F1B42D57D522}"/>
+    <workbookView xWindow="10560" yWindow="460" windowWidth="13940" windowHeight="13560" xr2:uid="{95A5D617-4876-BF47-9BE6-F1B42D57D522}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A74EFE-77D6-6945-847B-E98CEBA03708}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,8 +520,8 @@
         <v>-26.25</v>
       </c>
       <c r="E2">
-        <f>(C2*12) + 150</f>
-        <v>300</v>
+        <f>(C2*12) + 165</f>
+        <v>315</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -552,8 +552,8 @@
         <v>60</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E37" si="1">(C3*12) + 150</f>
-        <v>216</v>
+        <f t="shared" ref="E3:E37" si="1">(C3*12) + 165</f>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -585,7 +585,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -616,7 +616,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -678,7 +678,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -709,7 +709,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -740,7 +740,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -833,7 +833,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -864,7 +864,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -926,7 +926,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -957,7 +957,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -988,7 +988,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
